--- a/Olah Data Pelanggan/BARANG LARIS.xlsx
+++ b/Olah Data Pelanggan/BARANG LARIS.xlsx
@@ -7192,13 +7192,13 @@
   <dimension ref="A1:H1134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
